--- a/dds/project.xlsx
+++ b/dds/project.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\dds\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="362"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="362"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Tables" sheetId="4" r:id="rId5"/>
     <sheet name="Labels" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
   <si>
     <t>Identifier</t>
   </si>
@@ -41,27 +46,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Sample Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Input Widget</t>
-  </si>
-  <si>
-    <t>Output Widget</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -453,12 +437,18 @@
   </si>
   <si>
     <t>fk_site_id</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,6 +635,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -692,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,25 +932,24 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.33203125"/>
-    <col min="2" max="2" width="16.88671875"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375"/>
-    <col min="5" max="5" width="64.88671875"/>
-    <col min="7" max="7" width="27.88671875"/>
-    <col min="13" max="13" width="19"/>
+    <col min="1" max="1" width="42.36328125"/>
+    <col min="2" max="2" width="16.90625"/>
+    <col min="3" max="3" width="26.81640625"/>
+    <col min="4" max="4" width="64.90625"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,385 +957,372 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1363,125 +1342,125 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875"/>
+    <col min="1" max="1" width="25.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1501,66 +1480,66 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875"/>
+    <col min="1" max="1" width="32.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1580,47 +1559,47 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1640,124 +1619,124 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875"/>
+    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1774,103 +1753,103 @@
       <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.5546875"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E4" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/dds/project.xlsx
+++ b/dds/project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="362"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="362" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -268,9 +268,6 @@
     <t>Table 5</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>lease_area_proj4_string</t>
   </si>
   <si>
-    <t>device</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -433,9 +427,6 @@
     <t>The export cable landing points for all available sites</t>
   </si>
   <si>
-    <t>farm</t>
-  </si>
-  <si>
     <t>fk_site_id</t>
   </si>
   <si>
@@ -443,6 +434,15 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>project.site</t>
+  </si>
+  <si>
+    <t>project.device</t>
+  </si>
+  <si>
+    <t>project.farm</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:N1048576"/>
     </sheetView>
@@ -949,7 +949,7 @@
     <col min="8" max="8" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1201,58 +1201,58 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
         <v>130</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1274,55 +1274,55 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>127</v>
-      </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -1507,39 +1507,39 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1573,16 +1573,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1590,16 +1590,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1615,8 +1615,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1654,16 +1654,16 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1671,16 +1671,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1688,13 +1688,13 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1702,41 +1702,41 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1769,19 +1769,19 @@
         <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1789,13 +1789,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1803,13 +1803,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1817,39 +1817,39 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>102</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>103</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/dds/project.xlsx
+++ b/dds/project.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Tables" sheetId="4" r:id="rId5"/>
     <sheet name="Labels" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
   <si>
     <t>Identifier</t>
   </si>
@@ -427,9 +427,6 @@
     <t>The export cable landing points for all available sites</t>
   </si>
   <si>
-    <t>fk_site_id</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
   </si>
   <si>
     <t>project.device</t>
-  </si>
-  <si>
-    <t>project.farm</t>
   </si>
 </sst>
 </file>
@@ -936,7 +930,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:N1048576"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -977,355 +971,358 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="A4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H25">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1616,7 +1613,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1654,7 +1651,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1671,7 +1668,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1688,7 +1685,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -1702,7 +1699,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1716,7 +1713,7 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1730,10 +1727,10 @@
         <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>126</v>

--- a/dds/project.xlsx
+++ b/dds/project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-core\dds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87320857-48EE-4208-9C96-23BCDC97597B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="362" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8205" tabRatio="362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
   <si>
     <t>Identifier</t>
   </si>
@@ -79,9 +80,6 @@
     <t>Device Technology Type</t>
   </si>
   <si>
-    <t>Type of Device: "Tidal Floating", "Tidal Fixed", "Wave Floating" or "Wave Fixed".</t>
-  </si>
-  <si>
     <t>site.lease_boundary</t>
   </si>
   <si>
@@ -103,9 +101,6 @@
     <t>All Available Sites</t>
   </si>
   <si>
-    <t>All sites and assosiated top level data</t>
-  </si>
-  <si>
     <t>hidden.available_systems</t>
   </si>
   <si>
@@ -172,9 +167,6 @@
     <t>Bathymetry</t>
   </si>
   <si>
-    <t>bathymetry of the lease area ( as minimum requirement ), in function of the x,y coordiantes.</t>
-  </si>
-  <si>
     <t>hidden.lease_boundaries</t>
   </si>
   <si>
@@ -217,9 +209,6 @@
     <t>Lease Area Selected</t>
   </si>
   <si>
-    <t>Indicates if a lease area has been selecte for database filtering</t>
-  </si>
-  <si>
     <t>Type 1</t>
   </si>
   <si>
@@ -364,18 +353,12 @@
     <t>Cable Corridor Area Selected</t>
   </si>
   <si>
-    <t>Indicates if a cable corridor area has been selecte for database filtering</t>
-  </si>
-  <si>
     <t>All Cable Corridor Boundaries</t>
   </si>
   <si>
     <t>corridor_boundary</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>Bathymetry of the cable corridor</t>
   </si>
   <si>
@@ -406,9 +389,6 @@
     <t>Cable Landing Point</t>
   </si>
   <si>
-    <t>Coordinates of cable landing point.</t>
-  </si>
-  <si>
     <t>cable_landing_location</t>
   </si>
   <si>
@@ -437,12 +417,30 @@
   </si>
   <si>
     <t>project.device</t>
+  </si>
+  <si>
+    <t>All sites and associated top level data</t>
+  </si>
+  <si>
+    <t>Indicates if a cable corridor area has been selected for database filtering</t>
+  </si>
+  <si>
+    <t>Indicates if a lease area has been selected for database filtering</t>
+  </si>
+  <si>
+    <t>Bathymetry of the lease area</t>
+  </si>
+  <si>
+    <t>Coordinates of cable landing point</t>
+  </si>
+  <si>
+    <t>Type of Device: "Tidal Floating", "Tidal Fixed", "Wave Floating" or "Wave Fixed"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -712,6 +710,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -747,6 +762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,28 +954,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.36328125"/>
-    <col min="2" max="2" width="16.90625"/>
-    <col min="3" max="3" width="26.81640625"/>
-    <col min="4" max="4" width="64.90625"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125"/>
+    <col min="2" max="2" width="16.85546875"/>
+    <col min="3" max="3" width="26.85546875"/>
+    <col min="4" max="4" width="64.85546875"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -969,63 +1001,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1064,259 +1091,259 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
       <c r="D10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1339,125 +1366,125 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875"/>
+    <col min="1" max="1" width="25.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1477,66 +1504,66 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875"/>
+    <col min="1" max="1" width="32.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1556,47 +1583,47 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1606,134 +1633,134 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1743,110 +1770,110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.54296875"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
         <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
